--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.4307472990935</v>
+        <v>34.682839</v>
       </c>
       <c r="N2">
-        <v>33.4307472990935</v>
+        <v>104.048517</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9919940127517238</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9919940127517238</v>
       </c>
       <c r="Q2">
-        <v>4736.683023249366</v>
+        <v>5203.654686107662</v>
       </c>
       <c r="R2">
-        <v>4736.683023249366</v>
+        <v>46832.89217496897</v>
       </c>
       <c r="S2">
-        <v>0.4220481671659174</v>
+        <v>0.4119262443943864</v>
       </c>
       <c r="T2">
-        <v>0.4220481671659174</v>
+        <v>0.4119262443943864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.92168737024831</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>67.92168737024831</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>33.4307472990935</v>
+        <v>0.2799113333333333</v>
       </c>
       <c r="N3">
-        <v>33.4307472990935</v>
+        <v>0.839734</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.008005987248276263</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.008005987248276263</v>
       </c>
       <c r="Q3">
-        <v>2270.672766602801</v>
+        <v>41.99661744514756</v>
       </c>
       <c r="R3">
-        <v>2270.672766602801</v>
+        <v>377.969557006328</v>
       </c>
       <c r="S3">
-        <v>0.2023215981889492</v>
+        <v>0.00332449210122116</v>
       </c>
       <c r="T3">
-        <v>0.2023215981889492</v>
+        <v>0.00332449210122116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H4">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I4">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J4">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.4307472990935</v>
+        <v>34.682839</v>
       </c>
       <c r="N4">
-        <v>33.4307472990935</v>
+        <v>104.048517</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9919940127517238</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9919940127517238</v>
       </c>
       <c r="Q4">
-        <v>3050.334733015573</v>
+        <v>2371.690324427877</v>
       </c>
       <c r="R4">
-        <v>3050.334733015573</v>
+        <v>21345.21291985089</v>
       </c>
       <c r="S4">
-        <v>0.2717910776365635</v>
+        <v>0.1877452573508192</v>
       </c>
       <c r="T4">
-        <v>0.2717910776365635</v>
+        <v>0.1877452573508191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,303 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>68.382243</v>
+      </c>
+      <c r="H5">
+        <v>205.146729</v>
+      </c>
+      <c r="I5">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="J5">
+        <v>0.1892604742946246</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2799113333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.839734</v>
+      </c>
+      <c r="O5">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="P5">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="Q5">
+        <v>19.140964814454</v>
+      </c>
+      <c r="R5">
+        <v>172.268683330086</v>
+      </c>
+      <c r="S5">
+        <v>0.001515216943805482</v>
+      </c>
+      <c r="T5">
+        <v>0.001515216943805482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>34.8599992401179</v>
-      </c>
-      <c r="H5">
-        <v>34.8599992401179</v>
-      </c>
-      <c r="I5">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="J5">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>33.4307472990935</v>
-      </c>
-      <c r="N5">
-        <v>33.4307472990935</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1165.395825442973</v>
-      </c>
-      <c r="R5">
-        <v>1165.395825442973</v>
-      </c>
-      <c r="S5">
-        <v>0.1038391570085698</v>
-      </c>
-      <c r="T5">
-        <v>0.1038391570085698</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>104.737245</v>
+      </c>
+      <c r="H6">
+        <v>314.211735</v>
+      </c>
+      <c r="I6">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J6">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>34.682839</v>
+      </c>
+      <c r="N6">
+        <v>104.048517</v>
+      </c>
+      <c r="O6">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="P6">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="Q6">
+        <v>3632.585005638555</v>
+      </c>
+      <c r="R6">
+        <v>32693.265050747</v>
+      </c>
+      <c r="S6">
+        <v>0.2875588771889333</v>
+      </c>
+      <c r="T6">
+        <v>0.2875588771889332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>104.737245</v>
+      </c>
+      <c r="H7">
+        <v>314.211735</v>
+      </c>
+      <c r="I7">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="J7">
+        <v>0.2898796499701289</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2799113333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.839734</v>
+      </c>
+      <c r="O7">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="P7">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="Q7">
+        <v>29.31714189761</v>
+      </c>
+      <c r="R7">
+        <v>263.85427707849</v>
+      </c>
+      <c r="S7">
+        <v>0.002320772781195639</v>
+      </c>
+      <c r="T7">
+        <v>0.002320772781195639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>38.15794</v>
+      </c>
+      <c r="H8">
+        <v>114.47382</v>
+      </c>
+      <c r="I8">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J8">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.682839</v>
+      </c>
+      <c r="N8">
+        <v>104.048517</v>
+      </c>
+      <c r="O8">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="P8">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="Q8">
+        <v>1323.42568959166</v>
+      </c>
+      <c r="R8">
+        <v>11910.83120632494</v>
+      </c>
+      <c r="S8">
+        <v>0.104763633817585</v>
+      </c>
+      <c r="T8">
+        <v>0.104763633817585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>38.15794</v>
+      </c>
+      <c r="H9">
+        <v>114.47382</v>
+      </c>
+      <c r="I9">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J9">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.2799113333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.839734</v>
+      </c>
+      <c r="O9">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="P9">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="Q9">
+        <v>10.68083986265333</v>
+      </c>
+      <c r="R9">
+        <v>96.12755876388</v>
+      </c>
+      <c r="S9">
+        <v>0.0008455054220539822</v>
+      </c>
+      <c r="T9">
+        <v>0.000845505422053982</v>
       </c>
     </row>
   </sheetData>
